--- a/gallery_json_template.xlsx
+++ b/gallery_json_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\--CODE--\25Q1_Fab_InkShow\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA180B9-F730-4227-8312-D1C0F628DDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36F0FD5D-5878-4910-AB0C-47E62DD604C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-8550" windowWidth="16440" windowHeight="28440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="109">
   <si>
     <t>src</t>
   </si>
@@ -325,6 +325,66 @@
   </si>
   <si>
     <t>ScanImage42.jpg</t>
+  </si>
+  <si>
+    <t>ScanImage63.jpg</t>
+  </si>
+  <si>
+    <t>ScanImage64.jpg</t>
+  </si>
+  <si>
+    <t>ScanImage65.jpg</t>
+  </si>
+  <si>
+    <t>ScanImage66.jpg</t>
+  </si>
+  <si>
+    <t>ScanImage67.jpg</t>
+  </si>
+  <si>
+    <t>ScanImage68.jpg</t>
+  </si>
+  <si>
+    <t>ScanImage69.jpg</t>
+  </si>
+  <si>
+    <t>ScanImage70.jpg</t>
+  </si>
+  <si>
+    <t>ScanImage71.jpg</t>
+  </si>
+  <si>
+    <t>ScanImage72.jpg</t>
+  </si>
+  <si>
+    <t>anonimo01</t>
+  </si>
+  <si>
+    <t>anonimo02</t>
+  </si>
+  <si>
+    <t>anonimo03</t>
+  </si>
+  <si>
+    <t>anonimo04</t>
+  </si>
+  <si>
+    <t>anonimo05</t>
+  </si>
+  <si>
+    <t>anonimo06</t>
+  </si>
+  <si>
+    <t>anonimo07</t>
+  </si>
+  <si>
+    <t>anonimo08</t>
+  </si>
+  <si>
+    <t>anonimo09</t>
+  </si>
+  <si>
+    <t>anonimo10</t>
   </si>
 </sst>
 </file>
@@ -722,10 +782,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P25"/>
+  <dimension ref="A1:P35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" customHeight="1"/>
@@ -818,7 +878,7 @@
     </row>
     <row r="3" spans="1:16" ht="16.5" customHeight="1">
       <c r="A3" s="2" t="str">
-        <f t="shared" ref="A3:A25" si="0">"images/"&amp;B3</f>
+        <f t="shared" ref="A3:A35" si="0">"images/"&amp;B3</f>
         <v>images/ScanImage49.jpg</v>
       </c>
       <c r="B3" s="7" t="s">
@@ -927,7 +987,7 @@
         <v>63</v>
       </c>
       <c r="K5" s="5">
-        <v>45668</v>
+        <v>45692</v>
       </c>
       <c r="N5" s="7"/>
       <c r="O5" s="7"/>
@@ -966,7 +1026,7 @@
         <v>63</v>
       </c>
       <c r="K6" s="5">
-        <v>45671</v>
+        <v>45692</v>
       </c>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
@@ -1005,7 +1065,7 @@
         <v>63</v>
       </c>
       <c r="K7" s="5">
-        <v>45674</v>
+        <v>45692</v>
       </c>
       <c r="N7" s="7"/>
       <c r="O7" s="7"/>
@@ -1044,7 +1104,7 @@
         <v>63</v>
       </c>
       <c r="K8" s="5">
-        <v>45677</v>
+        <v>45692</v>
       </c>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
@@ -1083,7 +1143,7 @@
         <v>63</v>
       </c>
       <c r="K9" s="5">
-        <v>45680</v>
+        <v>45692</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -1122,7 +1182,7 @@
         <v>63</v>
       </c>
       <c r="K10" s="5">
-        <v>45683</v>
+        <v>45692</v>
       </c>
       <c r="N10" s="7"/>
       <c r="O10" s="7"/>
@@ -1161,7 +1221,7 @@
         <v>63</v>
       </c>
       <c r="K11" s="5">
-        <v>45686</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="12" spans="1:16" ht="16.5" customHeight="1">
@@ -1197,7 +1257,7 @@
         <v>63</v>
       </c>
       <c r="K12" s="5">
-        <v>45689</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="13" spans="1:16" ht="16.5" customHeight="1">
@@ -1272,7 +1332,7 @@
         <v>63</v>
       </c>
       <c r="K14" s="5">
-        <v>45695</v>
+        <v>45692</v>
       </c>
       <c r="N14" s="7"/>
       <c r="O14" s="7"/>
@@ -1311,7 +1371,7 @@
         <v>63</v>
       </c>
       <c r="K15" s="5">
-        <v>45698</v>
+        <v>45692</v>
       </c>
       <c r="N15" s="7"/>
       <c r="O15" s="7"/>
@@ -1350,7 +1410,7 @@
         <v>63</v>
       </c>
       <c r="K16" s="5">
-        <v>45701</v>
+        <v>45692</v>
       </c>
       <c r="N16" s="7"/>
       <c r="O16" s="7"/>
@@ -1389,7 +1449,7 @@
         <v>63</v>
       </c>
       <c r="K17" s="5">
-        <v>45704</v>
+        <v>45692</v>
       </c>
       <c r="N17" s="7"/>
       <c r="O17" s="7"/>
@@ -1428,7 +1488,7 @@
         <v>63</v>
       </c>
       <c r="K18" s="5">
-        <v>45705</v>
+        <v>45692</v>
       </c>
       <c r="N18" s="7"/>
       <c r="O18" s="7"/>
@@ -1467,7 +1527,7 @@
         <v>63</v>
       </c>
       <c r="K19" s="5">
-        <v>45706</v>
+        <v>45692</v>
       </c>
       <c r="N19" s="7"/>
       <c r="O19" s="7"/>
@@ -1506,7 +1566,7 @@
         <v>63</v>
       </c>
       <c r="K20" s="5">
-        <v>45707</v>
+        <v>45692</v>
       </c>
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
@@ -1545,7 +1605,7 @@
         <v>63</v>
       </c>
       <c r="K21" s="5">
-        <v>45708</v>
+        <v>45692</v>
       </c>
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
@@ -1584,7 +1644,7 @@
         <v>63</v>
       </c>
       <c r="K22" s="5">
-        <v>45709</v>
+        <v>45692</v>
       </c>
       <c r="N22" s="7"/>
       <c r="O22" s="7"/>
@@ -1623,7 +1683,7 @@
         <v>63</v>
       </c>
       <c r="K23" s="5">
-        <v>45710</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="24" spans="1:16" ht="16.5" customHeight="1">
@@ -1659,7 +1719,7 @@
         <v>63</v>
       </c>
       <c r="K24" s="5">
-        <v>45711</v>
+        <v>45692</v>
       </c>
     </row>
     <row r="25" spans="1:16" ht="16.5" customHeight="1">
@@ -1695,7 +1755,367 @@
         <v>63</v>
       </c>
       <c r="K25" s="5">
-        <v>45712</v>
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>images/ScanImage63.jpg</v>
+      </c>
+      <c r="B26" t="s">
+        <v>89</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="E26" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" t="s">
+        <v>64</v>
+      </c>
+      <c r="G26" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H26" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
+      <c r="J26" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K26" s="5">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>images/ScanImage64.jpg</v>
+      </c>
+      <c r="B27" t="s">
+        <v>90</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E27" t="s">
+        <v>11</v>
+      </c>
+      <c r="F27" t="s">
+        <v>64</v>
+      </c>
+      <c r="G27" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H27" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I27" t="s">
+        <v>62</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K27" s="5">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>images/ScanImage65.jpg</v>
+      </c>
+      <c r="B28" t="s">
+        <v>91</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>11</v>
+      </c>
+      <c r="F28" t="s">
+        <v>64</v>
+      </c>
+      <c r="G28" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H28" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" t="s">
+        <v>62</v>
+      </c>
+      <c r="J28" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K28" s="5">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>images/ScanImage66.jpg</v>
+      </c>
+      <c r="B29" t="s">
+        <v>92</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E29" t="s">
+        <v>11</v>
+      </c>
+      <c r="F29" t="s">
+        <v>64</v>
+      </c>
+      <c r="G29" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H29" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I29" t="s">
+        <v>62</v>
+      </c>
+      <c r="J29" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K29" s="5">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>images/ScanImage67.jpg</v>
+      </c>
+      <c r="B30" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>64</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H30" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I30" t="s">
+        <v>62</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K30" s="5">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>images/ScanImage68.jpg</v>
+      </c>
+      <c r="B31" t="s">
+        <v>94</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E31" t="s">
+        <v>11</v>
+      </c>
+      <c r="F31" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I31" t="s">
+        <v>62</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K31" s="5">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" ht="16.5" customHeight="1">
+      <c r="A32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>images/ScanImage69.jpg</v>
+      </c>
+      <c r="B32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H32" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I32" t="s">
+        <v>62</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K32" s="5">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>images/ScanImage70.jpg</v>
+      </c>
+      <c r="B33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E33" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" t="s">
+        <v>64</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H33" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I33" t="s">
+        <v>62</v>
+      </c>
+      <c r="J33" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K33" s="5">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>images/ScanImage71.jpg</v>
+      </c>
+      <c r="B34" t="s">
+        <v>97</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" t="s">
+        <v>11</v>
+      </c>
+      <c r="F34" t="s">
+        <v>64</v>
+      </c>
+      <c r="G34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H34" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I34" t="s">
+        <v>62</v>
+      </c>
+      <c r="J34" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K34" s="5">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" ht="16.5" customHeight="1">
+      <c r="A35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>images/ScanImage72.jpg</v>
+      </c>
+      <c r="B35" t="s">
+        <v>98</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E35" t="s">
+        <v>11</v>
+      </c>
+      <c r="F35" t="s">
+        <v>64</v>
+      </c>
+      <c r="G35" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H35" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="I35" t="s">
+        <v>62</v>
+      </c>
+      <c r="J35" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K35" s="5">
+        <v>45709</v>
       </c>
     </row>
   </sheetData>
